--- a/biology/Biochimie/Élastase/Élastase.xlsx
+++ b/biology/Biochimie/Élastase/Élastase.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>%C3%89lastase</t>
+          <t>Élastase</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">En biologie moléculaire, les élastases sont des enzymes produites par certains animaux (dont les mammifères), appartenant à la classe des protéases.
 Exclusivement produites dans le pancréas, elles  sont diffusées dans le corps où elles ont un rôle immunologique (attaque des parois externes de bactéries) et où elles catalysent l’hydrolyse de l’élastine, une fibre élastique qui - avec le collagène - détermine les propriétés mécaniques du tissu conjonctif. 
@@ -499,7 +511,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>%C3%89lastase</t>
+          <t>Élastase</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -519,18 +531,15 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">A1AT
-L'élastase est inhibée par la protéine α1-antitrypsine (A1AT) qui est l'une des protéines de phase aiguë (PPA) (classe de protéines synthétisées par le foie en réponse à une inflammation). 
+          <t>A1AT</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'élastase est inhibée par la protéine α1-antitrypsine (A1AT) qui est l'une des protéines de phase aiguë (PPA) (classe de protéines synthétisées par le foie en réponse à une inflammation). 
 Cette protéine se lie de manière quasi-irréversible au site actif de l'élastase et de la trypsine. 
 L'A1AT est normalement sécrétée par les cellules hépatiques dans le sérum. Une Déficit en alpha 1-antitrypsine carence en α1-antitryspin (A1AD) conduit à une destruction des fibres élastiques par l'élastase avec comme principal résultat l'emphysème pulmonaire.
-Neutropénie cyclique
-La Neutropénie cyclique (ou Cyclic hematopoeiesis pour les anglophones) est une maladie rare, maladie génétique ; autosomique dominante, caractérisée par une fluctuation des granulocytes neutrophiles sur des périodes de 21 jours. 
-Ces granulocytes neutrophiles (ou polynucléaires neutrophiles PNN) sont des cellules sanguines appartenant à la lignée des globules blancs (leucocytes) qui jouent un rôle majeur dans le système immunitaire. 
-Cycliquement (durant la phase de neutropénie), le risque d'infection augmente chez ces malades.
-En 1999, cette maladie a pu être reliée à des troubles du gène ELA-2/ELANE[1]. 
-D'autres formes de neutropénie congénitale semblent aussi être liée à des mutations du gène ELA-2.
-Autres maladies
-C'est l'élastase des neutrophiles qui est responsable (en présence d'anticorps) de la formation de cloques dans la pemphigoïde bulleuse, une maladie de la peau.
 </t>
         </is>
       </c>
@@ -541,7 +550,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>%C3%89lastase</t>
+          <t>Élastase</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -556,13 +565,93 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Le rôle de l'élastase humaine dans certaines maladies</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Neutropénie cyclique</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La Neutropénie cyclique (ou Cyclic hematopoeiesis pour les anglophones) est une maladie rare, maladie génétique ; autosomique dominante, caractérisée par une fluctuation des granulocytes neutrophiles sur des périodes de 21 jours. 
+Ces granulocytes neutrophiles (ou polynucléaires neutrophiles PNN) sont des cellules sanguines appartenant à la lignée des globules blancs (leucocytes) qui jouent un rôle majeur dans le système immunitaire. 
+Cycliquement (durant la phase de neutropénie), le risque d'infection augmente chez ces malades.
+En 1999, cette maladie a pu être reliée à des troubles du gène ELA-2/ELANE. 
+D'autres formes de neutropénie congénitale semblent aussi être liée à des mutations du gène ELA-2.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Élastase</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Biochimie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89lastase</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Le rôle de l'élastase humaine dans certaines maladies</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Autres maladies</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est l'élastase des neutrophiles qui est responsable (en présence d'anticorps) de la formation de cloques dans la pemphigoïde bulleuse, une maladie de la peau.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Élastase</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Biochimie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89lastase</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Le rôle de l'élastase dans les maladies bactériennes</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Il a été montré que :
-l'élastase perturbe les jonctions serrées (ou zonula occludens ou encore tight junction pour les anglophones), qui permettent - grâce à une protéine dite "claudine" [2]- la bonne étanchéité des compartiments tissulaires et des tissus épithéliaux chez les chordés (et donc chez l'Homme) ;
+l'élastase perturbe les jonctions serrées (ou zonula occludens ou encore tight junction pour les anglophones), qui permettent - grâce à une protéine dite "claudine" - la bonne étanchéité des compartiments tissulaires et des tissus épithéliaux chez les chordés (et donc chez l'Homme) ;
 l'élastase peut causer des dommages protéolytique à de nombreux types de tissus ;
 l'élastase peut briser des cytokines et l'inhibiteur alpha protéinase ;
 clive les immunoglobulines A et G (IgA, IgG) ;
